--- a/resultados/Experimento 7 Q-10000.xlsx
+++ b/resultados/Experimento 7 Q-10000.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rablo\Documents\GitHub\CMSTP-TW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rablo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F67F00-408E-464B-89BB-4F4BA9A93A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE696AD9-A01C-4DD6-A379-501970C66FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,6 +231,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -581,9 +582,9 @@
       <selection activeCell="D57" sqref="D2:D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -605,69 +606,69 @@
         <v>466.52144258854702</v>
       </c>
       <c r="C2">
-        <v>467.45944797076783</v>
+        <v>467.5104882221105</v>
       </c>
       <c r="D2">
-        <v>20.03119062543847</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.843442235141989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3">
-        <v>454.4929432559415</v>
+        <v>464.14066361960209</v>
       </c>
       <c r="C3">
-        <v>471.69735986944698</v>
+        <v>469.93333278203471</v>
       </c>
       <c r="D3">
-        <v>20.277658409439031</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.17319023944437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4">
-        <v>459.52242328504968</v>
+        <v>460.63056484263041</v>
       </c>
       <c r="C4">
-        <v>471.43962155857059</v>
+        <v>473.92352865228821</v>
       </c>
       <c r="D4">
-        <v>20.937455761805179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.861563106626271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
       <c r="B5">
-        <v>452.19360301966742</v>
+        <v>447.74727107734287</v>
       </c>
       <c r="C5">
-        <v>457.45098818083841</v>
+        <v>457.28879452690711</v>
       </c>
       <c r="D5">
-        <v>20.480074193840849</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.01506231091917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
       <c r="B6">
-        <v>463.34145390612372</v>
+        <v>463.84255351072562</v>
       </c>
       <c r="C6">
-        <v>468.33795179485412</v>
+        <v>470.71083469672442</v>
       </c>
       <c r="D6">
-        <v>19.982795153884219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.23744637127966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -675,27 +676,27 @@
         <v>457.39279161560319</v>
       </c>
       <c r="C7">
-        <v>461.44528901682111</v>
+        <v>461.2467366262278</v>
       </c>
       <c r="D7">
-        <v>19.536324473191051</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.524132197164001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>456.80385735099321</v>
+        <v>456.79799893466122</v>
       </c>
       <c r="C8">
-        <v>457.7512725132168</v>
+        <v>458.18867706032142</v>
       </c>
       <c r="D8">
-        <v>20.80563950343058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.50644626263529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -703,27 +704,27 @@
         <v>447.56082869989649</v>
       </c>
       <c r="C9">
-        <v>450.75044491542519</v>
+        <v>450.43944960989501</v>
       </c>
       <c r="D9">
-        <v>21.26866474365816</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.196769827976819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10">
-        <v>438.97724034408537</v>
+        <v>438.37168906862138</v>
       </c>
       <c r="C10">
-        <v>441.4956262782116</v>
+        <v>441.99192224873951</v>
       </c>
       <c r="D10">
-        <v>22.416025773482399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.984817746654151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -734,10 +735,10 @@
         <v>519.16095201266251</v>
       </c>
       <c r="D11">
-        <v>18.263526421971619</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.420940658263859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -748,10 +749,10 @@
         <v>533.07229447834777</v>
       </c>
       <c r="D12">
-        <v>18.30110906544142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.522513075172899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -762,10 +763,10 @@
         <v>535.25824351265669</v>
       </c>
       <c r="D13">
-        <v>18.39271351685748</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.587782552279531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -776,10 +777,10 @@
         <v>546.92277614145553</v>
       </c>
       <c r="D14">
-        <v>18.708443089481442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.058968246169389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -790,10 +791,10 @@
         <v>517.88967012236435</v>
       </c>
       <c r="D15">
-        <v>18.288124381052331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.36887720581144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -804,10 +805,10 @@
         <v>517.56074190133393</v>
       </c>
       <c r="D16">
-        <v>18.19102709637955</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.196631027944381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -818,10 +819,10 @@
         <v>512.47021789610483</v>
       </c>
       <c r="D17">
-        <v>18.329945571813731</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.545043506845829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -832,10 +833,10 @@
         <v>514.31787677490706</v>
       </c>
       <c r="D18">
-        <v>18.201836905814709</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.390649168565869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -843,41 +844,41 @@
         <v>809.87095895496088</v>
       </c>
       <c r="C19">
-        <v>825.26240525441915</v>
+        <v>824.6373381717558</v>
       </c>
       <c r="D19">
-        <v>22.652393603883681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.601256247423589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20">
-        <v>808.76214384109437</v>
+        <v>793.44599180311502</v>
       </c>
       <c r="C20">
-        <v>832.24253970866653</v>
+        <v>828.2576719838562</v>
       </c>
       <c r="D20">
-        <v>21.18952240436338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.004514410719271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
       <c r="B21">
-        <v>668.95417585323071</v>
+        <v>642.63913284921614</v>
       </c>
       <c r="C21">
-        <v>695.59630778016242</v>
+        <v>685.32314835536567</v>
       </c>
       <c r="D21">
-        <v>25.464579593809319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.46401891056448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -888,10 +889,10 @@
         <v>617.16824484439269</v>
       </c>
       <c r="D22">
-        <v>18.811371666425838</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.076479756832121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -899,55 +900,55 @@
         <v>740.86049663310826</v>
       </c>
       <c r="C23">
-        <v>759.65965651613885</v>
+        <v>759.18730436839053</v>
       </c>
       <c r="D23">
-        <v>20.50292487237602</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.637088003940882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="B24">
-        <v>683.95538836559319</v>
+        <v>686.35078461586272</v>
       </c>
       <c r="C24">
-        <v>711.66793049606622</v>
+        <v>704.20291220258082</v>
       </c>
       <c r="D24">
-        <v>23.342261012271049</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21.101892943494018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25">
-        <v>648.59216661640778</v>
+        <v>651.14217788673386</v>
       </c>
       <c r="C25">
-        <v>676.40257589998214</v>
+        <v>679.23396544940465</v>
       </c>
       <c r="D25">
-        <v>23.06964743859135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21.747886314243079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
       <c r="B26">
-        <v>591.17301110538222</v>
+        <v>595.52515930903337</v>
       </c>
       <c r="C26">
-        <v>607.12734963721834</v>
+        <v>607.57219028819486</v>
       </c>
       <c r="D26">
-        <v>21.237539583770559</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.427135102450851</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -955,41 +956,41 @@
         <v>625.0086541439963</v>
       </c>
       <c r="C27">
-        <v>631.42418301214025</v>
+        <v>633.16029352746375</v>
       </c>
       <c r="D27">
-        <v>22.594175120908769</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.571788665652271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
       <c r="B28">
-        <v>588.10031548398615</v>
+        <v>587.79523578891963</v>
       </c>
       <c r="C28">
-        <v>594.60474023760446</v>
+        <v>594.20262969431042</v>
       </c>
       <c r="D28">
-        <v>21.817819539271291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.64153173342347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29">
-        <v>619.66594465196931</v>
+        <v>618.17181717354856</v>
       </c>
       <c r="C29">
-        <v>633.98692579722672</v>
+        <v>630.07734346298264</v>
       </c>
       <c r="D29">
-        <v>21.177668623719359</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.33711101897061</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1000,10 +1001,10 @@
         <v>572.16407069663887</v>
       </c>
       <c r="D30">
-        <v>17.918526339950041</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.149500240385532</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1011,41 +1012,41 @@
         <v>721.85495002221774</v>
       </c>
       <c r="C31">
-        <v>732.14267369717015</v>
+        <v>733.91906441473657</v>
       </c>
       <c r="D31">
-        <v>21.11775004966184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.967196650058028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
       <c r="B32">
-        <v>681.68039434437446</v>
+        <v>685.70279235730061</v>
       </c>
       <c r="C32">
-        <v>697.85088426344714</v>
+        <v>702.15905419462706</v>
       </c>
       <c r="D32">
-        <v>22.765447669522839</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.868998366594319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
       <c r="B33">
-        <v>633.59390764364343</v>
+        <v>631.11189476544621</v>
       </c>
       <c r="C33">
-        <v>659.07822511292727</v>
+        <v>657.36370631130217</v>
       </c>
       <c r="D33">
-        <v>21.68998466106132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.721471609361469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1053,13 +1054,13 @@
         <v>595.6494128075725</v>
       </c>
       <c r="C34">
-        <v>615.40952612653132</v>
+        <v>615.1113813223858</v>
       </c>
       <c r="D34">
-        <v>19.260435280436649</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.303513952903451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1070,10 +1071,10 @@
         <v>645.21832260883332</v>
       </c>
       <c r="D35">
-        <v>19.37277428307571</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.277301634848119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1081,41 +1082,41 @@
         <v>646.90030282822613</v>
       </c>
       <c r="C36">
-        <v>661.54683271857562</v>
+        <v>660.79972876066097</v>
       </c>
       <c r="D36">
-        <v>19.439912350382659</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.646222865767779</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
       <c r="B37">
-        <v>640.3646072132932</v>
+        <v>632.75050860103624</v>
       </c>
       <c r="C37">
-        <v>649.24544054514706</v>
+        <v>646.81888231327025</v>
       </c>
       <c r="D37">
-        <v>19.255775953875851</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.283883443661029</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
       <c r="B38">
-        <v>593.88546761356281</v>
+        <v>587.23330587992371</v>
       </c>
       <c r="C38">
-        <v>599.66589767698929</v>
+        <v>598.82022243723168</v>
       </c>
       <c r="D38">
-        <v>18.292483736202119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.49774908423424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -1126,24 +1127,24 @@
         <v>604.12847486283863</v>
       </c>
       <c r="D39">
-        <v>23.445382584910838</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22.082943370193242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
       <c r="B40">
-        <v>645.86494488793869</v>
+        <v>648.21707034442386</v>
       </c>
       <c r="C40">
-        <v>655.68459337639047</v>
+        <v>656.54034853886765</v>
       </c>
       <c r="D40">
-        <v>21.06753950077109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.30788436513394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1154,10 +1155,10 @@
         <v>573.22584774785491</v>
       </c>
       <c r="D41">
-        <v>17.664569436060269</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15.93736471682787</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1165,41 +1166,41 @@
         <v>711.28677955995818</v>
       </c>
       <c r="C42">
-        <v>722.02775625632876</v>
+        <v>720.56576581621175</v>
       </c>
       <c r="D42">
-        <v>21.909550684737042</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.557112637162209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
-        <v>666.41538123642317</v>
+        <v>664.03836962838295</v>
       </c>
       <c r="C43">
-        <v>680.07566125311962</v>
+        <v>676.59204379608605</v>
       </c>
       <c r="D43">
-        <v>27.17404114003293</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.792683266103271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44">
-        <v>629.5105765783469</v>
+        <v>624.51704005745728</v>
       </c>
       <c r="C44">
-        <v>646.68247718750149</v>
+        <v>651.8701759482708</v>
       </c>
       <c r="D44">
-        <v>35.76543331388384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29.553072870708998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -1210,24 +1211,24 @@
         <v>589.07908949443572</v>
       </c>
       <c r="D45">
-        <v>18.08011525808833</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.347767123952512</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
       <c r="B46">
-        <v>702.74334274363696</v>
+        <v>686.9429529748702</v>
       </c>
       <c r="C46">
-        <v>722.08693363386953</v>
+        <v>720.87711413770467</v>
       </c>
       <c r="D46">
-        <v>30.79436137904413</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27.381016097217799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1235,83 +1236,83 @@
         <v>666.0299093041624</v>
       </c>
       <c r="C47">
-        <v>686.73872480575096</v>
+        <v>686.02496771420363</v>
       </c>
       <c r="D47">
-        <v>22.821497702691701</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.246269082836811</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>18</v>
       </c>
       <c r="B48">
-        <v>617.77483111009053</v>
+        <v>624.1909216194199</v>
       </c>
       <c r="C48">
-        <v>641.21423223014108</v>
+        <v>642.90067779040669</v>
       </c>
       <c r="D48">
-        <v>26.239724792633201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24.66625521983951</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49">
-        <v>584.54109150703107</v>
+        <v>584.82176638915166</v>
       </c>
       <c r="C49">
-        <v>587.32543426711163</v>
+        <v>587.45529769835355</v>
       </c>
       <c r="D49">
-        <v>19.0558157202322</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.650544996559621</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="B50">
-        <v>729.82375870456485</v>
+        <v>727.5218534427238</v>
       </c>
       <c r="C50">
-        <v>737.34500518081336</v>
+        <v>737.57211092637033</v>
       </c>
       <c r="D50">
-        <v>21.327529639657591</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.385406708344821</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>28</v>
       </c>
       <c r="B51">
-        <v>678.69944144936176</v>
+        <v>670.38939948839243</v>
       </c>
       <c r="C51">
-        <v>696.14316758482414</v>
+        <v>691.5296847980386</v>
       </c>
       <c r="D51">
-        <v>25.124689907347779</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22.646782175265251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
       <c r="B52">
-        <v>638.23255303435576</v>
+        <v>629.95475672146222</v>
       </c>
       <c r="C52">
-        <v>655.68182762969195</v>
+        <v>647.47458232456188</v>
       </c>
       <c r="D52">
-        <v>26.41740327104926</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.647585370950399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1322,52 +1323,52 @@
         <v>586.90481081336907</v>
       </c>
       <c r="D53">
-        <v>17.930607815925029</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.028787674009799</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
       <c r="B54">
-        <v>689.00963457557555</v>
+        <v>683.65044747761976</v>
       </c>
       <c r="C54">
-        <v>706.1759940849563</v>
+        <v>709.05440476349918</v>
       </c>
       <c r="D54">
-        <v>24.119727598037571</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21.079949425719679</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
       <c r="B55">
-        <v>667.8279750908971</v>
+        <v>666.37665552025419</v>
       </c>
       <c r="C55">
-        <v>681.95849207564902</v>
+        <v>680.85363278425916</v>
       </c>
       <c r="D55">
-        <v>21.000863320287319</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.651060561649501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56">
-        <v>639.54616722895616</v>
+        <v>640.19600719913183</v>
       </c>
       <c r="C56">
-        <v>661.48096765978516</v>
+        <v>661.04695798874809</v>
       </c>
       <c r="D56">
-        <v>24.95310149020515</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21.561059407517309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>571.70420203255787</v>
       </c>
       <c r="D57">
-        <v>17.919511557556689</v>
+        <v>16.25180976148695</v>
       </c>
     </row>
   </sheetData>
